--- a/duplij.xlsx
+++ b/duplij.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ravota\telegrambot-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ravota\telegrambot-master\checking_comments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>отзывы с фейсбука</t>
   </si>
@@ -35,38 +35,23 @@
     <t>отзывы с других сервисов</t>
   </si>
   <si>
-    <t>старые отзывы</t>
-  </si>
-  <si>
-    <t>вчерашние отзывы</t>
-  </si>
-  <si>
     <t>все</t>
   </si>
   <si>
-    <t>фейсбукдубплий</t>
+    <t>вчера</t>
   </si>
   <si>
-    <t>ютуб</t>
+    <t>сегодня</t>
   </si>
   <si>
-    <t>всесервисыдубплий</t>
-  </si>
-  <si>
-    <t>старыедубплий</t>
-  </si>
-  <si>
-    <t>вчерашниедубплий</t>
-  </si>
-  <si>
-    <t>всебуплий</t>
+    <t>нет упоминаний</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,24 +80,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -188,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -230,9 +204,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,15 +490,15 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.75" thickBot="1">
+    <row r="1" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,13 +509,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -553,24 +524,24 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="39.75" thickBot="1">
+    <row r="2" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>7</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="6"/>
@@ -579,23 +550,13 @@
       <c r="K2" s="7"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="39.75" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="6"/>
       <c r="I3" s="1"/>
@@ -603,23 +564,13 @@
       <c r="K3" s="7"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="39.75" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="6"/>
       <c r="I4" s="1"/>
@@ -627,23 +578,13 @@
       <c r="K4" s="7"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="39.75" thickBot="1">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
       <c r="I5" s="1"/>
@@ -651,21 +592,13 @@
       <c r="K5" s="7"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="39.75" thickBot="1">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="6"/>
       <c r="I6" s="1"/>
@@ -673,21 +606,13 @@
       <c r="K6" s="7"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="39.75" thickBot="1">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
       <c r="I7" s="1"/>
@@ -695,21 +620,13 @@
       <c r="K7" s="7"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="39.75" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="6"/>
       <c r="I8" s="1"/>
@@ -717,21 +634,13 @@
       <c r="K8" s="7"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="39.75" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="6"/>
       <c r="I9" s="1"/>
@@ -739,21 +648,13 @@
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="39.75" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="6"/>
       <c r="I10" s="1"/>
@@ -761,7 +662,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -775,7 +676,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -789,7 +690,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -803,7 +704,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
@@ -817,7 +718,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -831,7 +732,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>
@@ -845,7 +746,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="13"/>
       <c r="C17" s="11"/>
@@ -859,7 +760,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="1"/>
@@ -873,7 +774,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
       <c r="C19" s="11"/>
@@ -887,7 +788,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
       <c r="C20" s="10"/>
@@ -901,7 +802,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="8"/>
       <c r="C21" s="11"/>
@@ -915,7 +816,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="10"/>
@@ -929,7 +830,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="10"/>
@@ -943,7 +844,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="10"/>
@@ -957,7 +858,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="10"/>
@@ -971,7 +872,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="10"/>
@@ -985,7 +886,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="10"/>
@@ -999,7 +900,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="10"/>
@@ -1013,7 +914,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -1027,7 +928,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="4"/>
@@ -1041,7 +942,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
       <c r="C31" s="11"/>
@@ -1055,7 +956,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="10"/>
@@ -1069,7 +970,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="12"/>
       <c r="C33" s="4"/>
@@ -1083,7 +984,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="13"/>
       <c r="C34" s="11"/>
@@ -1097,7 +998,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="14"/>
       <c r="C35" s="1"/>
@@ -1111,7 +1012,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="4"/>
@@ -1125,7 +1026,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="12"/>
       <c r="C37" s="4"/>
@@ -1139,7 +1040,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="14"/>
       <c r="C38" s="1"/>
@@ -1153,7 +1054,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="12"/>
       <c r="C39" s="4"/>
@@ -1167,7 +1068,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="13"/>
       <c r="C40" s="1"/>
@@ -1181,7 +1082,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
       <c r="C41" s="4"/>
@@ -1195,7 +1096,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="8"/>
       <c r="C42" s="11"/>
@@ -1209,7 +1110,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="9"/>
       <c r="C43" s="4"/>
@@ -1223,7 +1124,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="14"/>
       <c r="C44" s="1"/>
@@ -1237,7 +1138,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="13"/>
       <c r="C45" s="11"/>
@@ -1251,7 +1152,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="4"/>
@@ -1265,7 +1166,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="12"/>
       <c r="C47" s="4"/>
@@ -1279,7 +1180,7 @@
       <c r="K47" s="7"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="14"/>
       <c r="C48" s="1"/>
@@ -1293,7 +1194,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="13"/>
       <c r="C49" s="1"/>
@@ -1307,7 +1208,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="13"/>
       <c r="C50" s="11"/>
@@ -1321,7 +1222,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="13"/>
       <c r="C51" s="11"/>
@@ -1335,7 +1236,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="13"/>
       <c r="C52" s="11"/>
@@ -1349,7 +1250,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="13"/>
       <c r="C53" s="11"/>
@@ -1363,7 +1264,7 @@
       <c r="K53" s="7"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="13"/>
       <c r="C54" s="11"/>
@@ -1377,7 +1278,7 @@
       <c r="K54" s="7"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="13"/>
       <c r="C55" s="1"/>
@@ -1391,7 +1292,7 @@
       <c r="K55" s="7"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1">
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
       <c r="C56" s="10"/>
@@ -1405,7 +1306,7 @@
       <c r="K56" s="7"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1">
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="8"/>
       <c r="C57" s="11"/>
@@ -1419,7 +1320,7 @@
       <c r="K57" s="7"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1">
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="13"/>
       <c r="C58" s="11"/>
@@ -1433,7 +1334,7 @@
       <c r="K58" s="7"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1">
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="13"/>
       <c r="C59" s="11"/>
@@ -1447,7 +1348,7 @@
       <c r="K59" s="7"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="13"/>
       <c r="C60" s="11"/>
@@ -1461,7 +1362,7 @@
       <c r="K60" s="7"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1">
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="8"/>
       <c r="C61" s="11"/>

--- a/duplij.xlsx
+++ b/duplij.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>отзывы с фейсбука</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>нет упоминаний</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1Cnnoa_cUiI6VtuSzFdqL8FF4IL705_fOGOfFKZwxXrw/edit?usp=drive_web&amp;ouid=104786477438370031549</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +527,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -540,8 +543,8 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="6"/>
@@ -1377,7 +1380,10 @@
       <c r="L61" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>